--- a/Design/Json处理/items.xlsx
+++ b/Design/Json处理/items.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28130"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/Json处理/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-23660" yWindow="3940" windowWidth="17720" windowHeight="16580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -692,6 +705,21 @@
   <si>
     <t>金属瓶盖，里面写着"谢谢惠顾"。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎枪</t>
+    <rPh sb="0" eb="1">
+      <t>lie'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -702,20 +730,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -761,7 +789,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -803,12 +831,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -838,12 +866,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1049,16 +1077,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1136,7 +1164,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1162,7 +1190,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1188,7 +1216,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1214,7 +1242,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1240,7 +1268,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1266,7 +1294,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1292,7 +1320,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1318,7 +1346,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>203</v>
       </c>
@@ -1344,7 +1372,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>204</v>
       </c>
@@ -1370,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>300</v>
       </c>
@@ -1396,7 +1424,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>301</v>
       </c>
@@ -1422,7 +1450,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>302</v>
       </c>
@@ -1448,7 +1476,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>303</v>
       </c>
@@ -1474,7 +1502,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>400</v>
       </c>
@@ -1500,7 +1528,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>401</v>
       </c>
@@ -1526,7 +1554,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>500</v>
       </c>
@@ -1552,7 +1580,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>501</v>
       </c>
@@ -1578,7 +1606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>502</v>
       </c>
@@ -1604,7 +1632,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>503</v>
       </c>
@@ -1630,7 +1658,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>504</v>
       </c>
@@ -1656,7 +1684,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>505</v>
       </c>
@@ -1682,7 +1710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>506</v>
       </c>
@@ -1708,7 +1736,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>507</v>
       </c>
@@ -1734,7 +1762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>508</v>
       </c>
@@ -1760,7 +1788,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>509</v>
       </c>
@@ -1786,7 +1814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>510</v>
       </c>
@@ -1812,7 +1840,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>600</v>
       </c>
@@ -1838,7 +1866,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>601</v>
       </c>
@@ -1864,7 +1892,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>700</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>701</v>
       </c>
@@ -1916,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>800</v>
       </c>
@@ -1942,12 +1970,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>801</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
         <v>101</v>
@@ -1968,12 +1996,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>802</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
         <v>101</v>
@@ -1994,12 +2022,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>803</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
@@ -2020,7 +2048,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>900</v>
       </c>
@@ -2046,7 +2074,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>901</v>
       </c>
@@ -2072,7 +2100,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>902</v>
       </c>
@@ -2098,7 +2126,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>903</v>
       </c>
@@ -2124,7 +2152,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>904</v>
       </c>
@@ -2150,7 +2178,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>905</v>
       </c>
@@ -2176,7 +2204,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>906</v>
       </c>
@@ -2217,13 +2245,13 @@
       <selection activeCell="M34" sqref="M34:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="7" width="9" style="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="3" max="7" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="1">
         <v>2</v>
       </c>
@@ -2240,7 +2268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,7 +2285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -2284,7 +2312,7 @@
         <v>2|2;17|0.8;18|0.05;19|1;31|1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2311,7 +2339,7 @@
         <v>2|5;17|0.8;18|0.1;19|1.2;31|2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2366,7 @@
         <v>2|10;17|0.8;18|0.15;19|1.5;31|1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2365,7 +2393,7 @@
         <v>2|20;17|0.8;18|0.05;19|1;31|1.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2392,7 +2420,7 @@
         <v>2|40;17|0.8;18|0.1;19|1.2;31|1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2419,7 +2447,7 @@
         <v>2|50;17|0.8;18|0.1;19|1.2;31|1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2446,7 +2474,7 @@
         <v>2|15;17|0.4;18|0.15;19|2;31|20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2473,7 +2501,7 @@
         <v>2|30;17|0.5;18|0.2;19|2;31|30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2500,7 +2528,7 @@
         <v>2|40;17|0.7;18|0.1;19|1;31|30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2527,7 +2555,7 @@
         <v>2|120;17|0.9;18|0.05;19|2;31|10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2554,7 +2582,7 @@
         <v>2|60;17|0.8;18|0.05;19|0.4;31|10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2581,17 +2609,17 @@
         <v>2|100;17|0.7;18|0.15;19|1.5;31|50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2606,7 +2634,7 @@
         <v>4|2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2621,7 +2649,7 @@
         <v>4|3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2636,7 +2664,7 @@
         <v>4|8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2651,7 +2679,7 @@
         <v>4|12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2666,17 +2694,17 @@
         <v>4|25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2691,7 +2719,7 @@
         <v>6|0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2706,7 +2734,7 @@
         <v>6|0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2721,7 +2749,7 @@
         <v>6|0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2736,7 +2764,7 @@
         <v>6|0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>0</v>
       </c>
@@ -2750,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2764,7 +2792,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2827,7 @@
         <v>0|20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2834,7 +2862,7 @@
         <v>0|50</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2903,7 @@
         <v>9|4;10|1;8|1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2941,7 @@
         <v>9|2;8|1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2951,7 +2979,7 @@
         <v>9|12;8|-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2989,7 +3017,7 @@
         <v>9|12;8|2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3027,7 +3055,7 @@
         <v>9|10;8|1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -3065,7 +3093,7 @@
         <v>9|15;8|3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3103,7 +3131,7 @@
         <v>9|20;8|5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -3138,7 +3166,7 @@
         <v>9|2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3176,7 +3204,7 @@
         <v>9|2;8|-1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -3211,7 +3239,7 @@
         <v>9|20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3249,7 +3277,7 @@
         <v>9|15;8|5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -3287,7 +3315,7 @@
         <v>0|-5;8|5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -3339,7 +3367,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
